--- a/param_dist/below_ground.xlsx
+++ b/param_dist/below_ground.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slategeotech-my.sharepoint.com/personal/bzheng_slategeotech_com/Documents/CEC/OpenSRA/param_dist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{48A64A16-839D-4EB3-BF2F-A973C4A4B7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D001B4FB-BB74-4C7E-AB6C-0D5411FF0C54}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{48A64A16-839D-4EB3-BF2F-A973C4A4B7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48D3B355-3793-49B3-9C9A-0A50B6A38F03}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{0CF1B192-5A29-435B-821A-1A8E6C927DCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{0CF1B192-5A29-435B-821A-1A8E6C927DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="level1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="85">
   <si>
     <t>normal</t>
   </si>
@@ -142,9 +142,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>h_cover</t>
-  </si>
-  <si>
     <t>kN/m^3</t>
   </si>
   <si>
@@ -359,6 +356,33 @@
   </si>
   <si>
     <t>"NA"</t>
+  </si>
+  <si>
+    <t>psi_dip</t>
+  </si>
+  <si>
+    <t>beta_crossing</t>
+  </si>
+  <si>
+    <t>slip-pipeline crossing angle</t>
+  </si>
+  <si>
+    <t>pipe-fault dip angle</t>
+  </si>
+  <si>
+    <t>l_anchor</t>
+  </si>
+  <si>
+    <t>pipeline anchored length</t>
+  </si>
+  <si>
+    <t>soil_density</t>
+  </si>
+  <si>
+    <t>soil density: soft, medium stiff, or stiff for clay; medium dense, dense, or very dense for sand</t>
+  </si>
+  <si>
+    <t>h_pipe</t>
   </si>
 </sst>
 </file>
@@ -394,8 +418,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38878A27-4F03-488B-A8C6-4048A6415AE1}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,42 +794,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
       <c r="K1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -813,10 +838,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>610</v>
@@ -836,7 +861,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -845,10 +870,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>10.199999999999999</v>
@@ -868,19 +893,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>359000</v>
@@ -900,19 +925,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>73</v>
       </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -921,10 +946,10 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
         <v>0</v>
@@ -932,7 +957,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -941,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>8.5</v>
@@ -953,10 +978,10 @@
         <v>1.5</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
         <v>0</v>
@@ -964,7 +989,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -973,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -996,7 +1021,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1005,10 +1030,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>0.75</v>
@@ -1028,7 +1053,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1037,10 +1062,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>40</v>
@@ -1060,7 +1085,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1069,10 +1094,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>19</v>
@@ -1092,7 +1117,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1101,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -1124,7 +1149,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -1133,10 +1158,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12">
         <v>38</v>
@@ -1156,7 +1181,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -1168,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>0.75</v>
@@ -1188,7 +1213,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -1197,10 +1222,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>8200</v>
@@ -1220,7 +1245,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -1229,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15">
         <v>30</v>
@@ -1246,7 +1271,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -1255,13 +1280,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16">
         <v>50</v>
@@ -1272,7 +1297,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -1281,22 +1306,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17">
         <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s">
         <v>2</v>
@@ -1304,7 +1329,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -1313,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18">
         <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" t="s">
         <v>2</v>
@@ -1336,7 +1361,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -1345,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H19">
         <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" t="s">
         <v>2</v>
@@ -1368,7 +1393,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -1377,13 +1402,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20">
         <v>40</v>
@@ -1397,7 +1422,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -1406,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -1423,7 +1448,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -1432,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
@@ -1455,31 +1480,31 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23">
-        <v>10</v>
-      </c>
-      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1">
+        <v>7</v>
+      </c>
+      <c r="I23" s="1">
         <v>16</v>
       </c>
-      <c r="J23">
-        <v>26</v>
+      <c r="J23" s="1">
+        <v>21.5</v>
       </c>
       <c r="K23" t="s">
         <v>2</v>
@@ -1487,31 +1512,31 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24">
-        <v>40</v>
-      </c>
-      <c r="I24">
-        <v>30</v>
-      </c>
-      <c r="J24">
-        <v>45</v>
+        <v>24</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
       </c>
       <c r="K24" t="s">
         <v>2</v>
@@ -1519,27 +1544,126 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>15</v>
+      </c>
+      <c r="J26">
+        <v>90</v>
+      </c>
+      <c r="K26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27">
         <v>20</v>
       </c>
-      <c r="H25">
-        <v>45</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="I27">
+        <v>0.1</v>
+      </c>
+      <c r="J27">
+        <v>180</v>
+      </c>
+      <c r="K27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28">
+        <v>40</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1552,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF77FDDE-D87F-4E64-ADF5-F7C4C1229BC0}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,42 +1693,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
       <c r="K1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -1613,13 +1737,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1630,7 +1754,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -1639,13 +1763,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1656,22 +1780,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>7.5</v>
@@ -1682,19 +1806,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>73</v>
       </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -1703,10 +1827,10 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
         <v>0</v>
@@ -1714,7 +1838,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1723,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>8.5</v>
@@ -1735,10 +1859,10 @@
         <v>1.5</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
         <v>0</v>
@@ -1746,7 +1870,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1755,7 +1879,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
@@ -1778,7 +1902,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1787,10 +1911,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>0.75</v>
@@ -1810,7 +1934,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1819,10 +1943,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>40</v>
@@ -1842,7 +1966,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -1851,10 +1975,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>19</v>
@@ -1874,7 +1998,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -1883,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -1906,7 +2030,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -1915,10 +2039,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12">
         <v>38</v>
@@ -1938,7 +2062,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -1950,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>0.75</v>
@@ -1970,7 +2094,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -1979,13 +2103,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -2002,7 +2126,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2011,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15">
         <v>30</v>
@@ -2028,7 +2152,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2037,13 +2161,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16">
         <v>40</v>
@@ -2054,7 +2178,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2063,22 +2187,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17">
         <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s">
         <v>2</v>
@@ -2086,7 +2210,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2095,22 +2219,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18">
         <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" t="s">
         <v>2</v>
@@ -2118,7 +2242,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2127,22 +2251,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H19">
         <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" t="s">
         <v>2</v>
@@ -2150,7 +2274,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -2159,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20">
         <v>40</v>
@@ -2179,7 +2303,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2188,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -2205,7 +2329,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -2214,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
@@ -2235,93 +2359,192 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1">
+        <v>7</v>
+      </c>
+      <c r="I23" s="1">
+        <v>16</v>
+      </c>
+      <c r="J23" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B23" t="b">
-        <v>0</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>15</v>
+      </c>
+      <c r="J26">
+        <v>90</v>
+      </c>
+      <c r="K26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27">
         <v>20</v>
       </c>
-      <c r="H23">
-        <v>10</v>
-      </c>
-      <c r="I23">
-        <v>16</v>
-      </c>
-      <c r="J23">
-        <v>26</v>
-      </c>
-      <c r="K23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="I27">
+        <v>0.1</v>
+      </c>
+      <c r="J27">
+        <v>180</v>
+      </c>
+      <c r="K27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
         <v>3</v>
       </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24">
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28">
         <v>40</v>
       </c>
-      <c r="I24">
-        <v>30</v>
-      </c>
-      <c r="J24">
-        <v>45</v>
-      </c>
-      <c r="K24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="b">
-        <v>0</v>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25">
-        <v>45</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2333,10 +2556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AD9398-98CA-4DC9-BCD5-D6EC9B94D5CB}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,42 +2571,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
       <c r="K1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -2392,13 +2615,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2409,7 +2632,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -2418,13 +2641,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2435,22 +2658,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>7.5</v>
@@ -2461,19 +2684,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>73</v>
       </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -2482,10 +2705,10 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
         <v>0</v>
@@ -2493,7 +2716,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2502,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>8.5</v>
@@ -2514,10 +2737,10 @@
         <v>1.5</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
         <v>0</v>
@@ -2525,7 +2748,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -2534,13 +2757,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>50</v>
@@ -2557,7 +2780,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -2566,13 +2789,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8">
         <v>0.1</v>
@@ -2589,7 +2812,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -2598,22 +2821,19 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>25</v>
       </c>
       <c r="I9">
-        <v>20</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="K9" t="s">
         <v>2</v>
@@ -2621,7 +2841,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -2630,13 +2850,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -2653,7 +2873,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -2662,13 +2882,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -2685,7 +2905,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -2694,13 +2914,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12">
         <v>9</v>
@@ -2717,7 +2937,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -2729,10 +2949,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13">
         <v>0.1</v>
@@ -2749,7 +2969,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -2758,13 +2978,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -2781,7 +3001,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -2790,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15">
         <v>30</v>
@@ -2807,7 +3027,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -2816,13 +3036,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16">
         <v>20</v>
@@ -2833,7 +3053,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -2842,22 +3062,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17">
         <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s">
         <v>2</v>
@@ -2865,7 +3085,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -2874,22 +3094,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18">
         <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" t="s">
         <v>2</v>
@@ -2897,7 +3117,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -2906,22 +3126,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19">
         <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" t="s">
         <v>2</v>
@@ -2929,7 +3149,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2938,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H20">
         <v>40</v>
@@ -2958,7 +3178,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2967,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -2984,7 +3204,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2993,13 +3213,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H22">
         <v>15</v>
@@ -3016,7 +3236,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -3025,22 +3245,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23">
-        <v>10</v>
-      </c>
-      <c r="I23">
+        <v>19</v>
+      </c>
+      <c r="H23" s="1">
+        <v>7</v>
+      </c>
+      <c r="I23" s="1">
         <v>16</v>
       </c>
-      <c r="J23">
-        <v>26</v>
+      <c r="J23" s="1">
+        <v>21.5</v>
       </c>
       <c r="K23" t="s">
         <v>2</v>
@@ -3048,7 +3268,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3057,22 +3277,22 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24">
-        <v>40</v>
-      </c>
-      <c r="I24">
-        <v>30</v>
-      </c>
-      <c r="J24">
-        <v>45</v>
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
       </c>
       <c r="K24" t="s">
         <v>2</v>
@@ -3080,7 +3300,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -3089,18 +3309,117 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>15</v>
+      </c>
+      <c r="J26">
+        <v>90</v>
+      </c>
+      <c r="K26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27">
         <v>20</v>
       </c>
-      <c r="H25">
-        <v>45</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="I27">
+        <v>0.1</v>
+      </c>
+      <c r="J27">
+        <v>180</v>
+      </c>
+      <c r="K27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28">
+        <v>40</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3112,42 +3431,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCED57AC-E690-4808-833F-0DC8ED342654}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="4" max="4" width="85.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -3156,15 +3476,15 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3173,13 +3493,30 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/param_dist/below_ground.xlsx
+++ b/param_dist/below_ground.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slategeotech-my.sharepoint.com/personal/bzheng_slategeotech_com/Documents/CEC/OpenSRA/param_dist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{48A64A16-839D-4EB3-BF2F-A973C4A4B7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48D3B355-3793-49B3-9C9A-0A50B6A38F03}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{48A64A16-839D-4EB3-BF2F-A973C4A4B7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2E73DFD-1713-4CBF-A060-65AAE37B8B11}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{0CF1B192-5A29-435B-821A-1A8E6C927DCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0CF1B192-5A29-435B-821A-1A8E6C927DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="level1" sheetId="1" r:id="rId1"/>
     <sheet name="level2" sheetId="2" r:id="rId2"/>
     <sheet name="level3" sheetId="3" r:id="rId3"/>
-    <sheet name="fixed" sheetId="4" r:id="rId4"/>
+    <sheet name="fixed" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="91">
   <si>
     <t>normal</t>
   </si>
@@ -383,6 +383,24 @@
   </si>
   <si>
     <t>h_pipe</t>
+  </si>
+  <si>
+    <t>source_for_landslide_deformation_geometry</t>
+  </si>
+  <si>
+    <t>source_for_lateral_spread_deformation_geometry</t>
+  </si>
+  <si>
+    <t>"CA landslide inventory"</t>
+  </si>
+  <si>
+    <t>"none"</t>
+  </si>
+  <si>
+    <t>source for lateral spread deformation geometry: "none" for levels 1 and 2, and "CPT-based" for level 3 and directory to CPT data must be specified under "GIS Data" tab</t>
+  </si>
+  <si>
+    <t>source for landslide deformation geometry: "none" for level 1, "CA landslide inventory" for level 2 and 3; users can also specify path to shapefile with geometries</t>
   </si>
 </sst>
 </file>
@@ -779,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38878A27-4F03-488B-A8C6-4048A6415AE1}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,7 +1647,7 @@
         <v>20</v>
       </c>
       <c r="I27">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>180</v>
@@ -1678,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF77FDDE-D87F-4E64-ADF5-F7C4C1229BC0}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,7 +2577,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:J22"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3430,19 +3448,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCED57AC-E690-4808-833F-0DC8ED342654}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05FAA73-8B95-463E-BA46-D430429688CD}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="85.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="6" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3519,6 +3537,46 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/param_dist/below_ground.xlsx
+++ b/param_dist/below_ground.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slategeotech-my.sharepoint.com/personal/bzheng_slategeotech_com/Documents/CEC/OpenSRA/param_dist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{48A64A16-839D-4EB3-BF2F-A973C4A4B7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2E73DFD-1713-4CBF-A060-65AAE37B8B11}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{A3D454CB-C675-440C-B26E-BB3C7CD09156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36C11FD3-27ED-4E67-907E-D377D51E5187}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{0CF1B192-5A29-435B-821A-1A8E6C927DCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{0CF1B192-5A29-435B-821A-1A8E6C927DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="level1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="91">
   <si>
     <t>normal</t>
   </si>
@@ -797,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38878A27-4F03-488B-A8C6-4048A6415AE1}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,10 +1647,10 @@
         <v>20</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="J27">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="K27" t="s">
         <v>0</v>
@@ -1696,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF77FDDE-D87F-4E64-ADF5-F7C4C1229BC0}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,7 +1801,7 @@
         <v>70</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1812,8 +1812,8 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
+      <c r="F4">
+        <v>359000</v>
       </c>
       <c r="H4">
         <v>7.5</v>
@@ -1906,7 +1906,7 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -2528,10 +2528,10 @@
         <v>20</v>
       </c>
       <c r="I27">
-        <v>0.1</v>
+        <v>-180</v>
       </c>
       <c r="J27">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="K27" t="s">
         <v>0</v>
@@ -2577,7 +2577,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2679,7 +2679,7 @@
         <v>70</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -2690,8 +2690,8 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
+      <c r="F4">
+        <v>359000</v>
       </c>
       <c r="H4">
         <v>7.5</v>
@@ -2780,11 +2780,11 @@
       <c r="E7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
-        <v>19</v>
+      <c r="F7">
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -3048,7 +3048,7 @@
         <v>30</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="H16">
         <v>20</v>
@@ -3199,7 +3199,7 @@
         <v>56</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -3211,7 +3211,7 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -3353,7 +3353,7 @@
         <v>76</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G26">
         <v>10</v>
@@ -3385,7 +3385,7 @@
         <v>77</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -3397,16 +3397,16 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G27">
         <v>20</v>
       </c>
       <c r="I27">
-        <v>0.1</v>
+        <v>-180</v>
       </c>
       <c r="J27">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="K27" t="s">
         <v>0</v>
@@ -3417,7 +3417,7 @@
         <v>80</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H28">
         <v>40</v>

--- a/param_dist/below_ground.xlsx
+++ b/param_dist/below_ground.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slategeotech-my.sharepoint.com/personal/bzheng_slategeotech_com/Documents/CEC/OpenSRA/param_dist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{A3D454CB-C675-440C-B26E-BB3C7CD09156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36C11FD3-27ED-4E67-907E-D377D51E5187}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{A3D454CB-C675-440C-B26E-BB3C7CD09156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7F37046-9AD6-4F07-87ED-C9F62335E896}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{0CF1B192-5A29-435B-821A-1A8E6C927DCF}"/>
+    <workbookView xWindow="13905" yWindow="3975" windowWidth="23250" windowHeight="14055" activeTab="2" xr2:uid="{0CF1B192-5A29-435B-821A-1A8E6C927DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="level1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="92">
   <si>
     <t>normal</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>source for landslide deformation geometry: "none" for level 1, "CA landslide inventory" for level 2 and 3; users can also specify path to shapefile with geometries</t>
+  </si>
+  <si>
+    <t>theta_rake</t>
   </si>
 </sst>
 </file>
@@ -795,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38878A27-4F03-488B-A8C6-4048A6415AE1}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:J27"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>36</v>
@@ -1683,6 +1686,38 @@
       </c>
       <c r="K28" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>-360</v>
+      </c>
+      <c r="J29">
+        <v>360</v>
+      </c>
+      <c r="K29" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1694,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF77FDDE-D87F-4E64-ADF5-F7C4C1229BC0}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>36</v>
@@ -2564,6 +2599,38 @@
       </c>
       <c r="K28" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>-360</v>
+      </c>
+      <c r="J29">
+        <v>360</v>
+      </c>
+      <c r="K29" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2574,10 +2641,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AD9398-98CA-4DC9-BCD5-D6EC9B94D5CB}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:J7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F16" activeCellId="1" sqref="F15 F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3051,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>36</v>
@@ -3060,7 +3127,7 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="H16">
         <v>20</v>
@@ -3439,6 +3506,38 @@
       </c>
       <c r="K28" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>-360</v>
+      </c>
+      <c r="J29">
+        <v>360</v>
+      </c>
+      <c r="K29" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/param_dist/below_ground.xlsx
+++ b/param_dist/below_ground.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slategeotech-my.sharepoint.com/personal/bzheng_slategeotech_com/Documents/CEC/OpenSRA/param_dist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{A3D454CB-C675-440C-B26E-BB3C7CD09156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7F37046-9AD6-4F07-87ED-C9F62335E896}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{A3D454CB-C675-440C-B26E-BB3C7CD09156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00E401F1-383E-4AE8-8CFF-2DB8FC46787D}"/>
   <bookViews>
-    <workbookView xWindow="13905" yWindow="3975" windowWidth="23250" windowHeight="14055" activeTab="2" xr2:uid="{0CF1B192-5A29-435B-821A-1A8E6C927DCF}"/>
+    <workbookView xWindow="1290" yWindow="-120" windowWidth="27630" windowHeight="16440" activeTab="2" xr2:uid="{0CF1B192-5A29-435B-821A-1A8E6C927DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="level1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="92">
   <si>
     <t>normal</t>
   </si>
@@ -439,9 +439,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1518,13 +1517,13 @@
       <c r="F23">
         <v>17</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23">
         <v>7</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>16</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23">
         <v>21.5</v>
       </c>
       <c r="K23" t="s">
@@ -2412,52 +2411,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>4</v>
       </c>
       <c r="F23">
         <v>17</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23">
         <v>7</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>16</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23">
         <v>21.5</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="K23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>59</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>3</v>
       </c>
       <c r="F24" t="s">
@@ -2472,24 +2471,24 @@
       <c r="J24" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="K24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>60</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>5</v>
       </c>
       <c r="F25" t="s">
@@ -2504,7 +2503,7 @@
       <c r="J25" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2644,7 +2643,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F16" activeCellId="1" sqref="F15 F16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2847,8 +2846,8 @@
       <c r="E7" t="s">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>100</v>
+      <c r="F7" t="s">
+        <v>24</v>
       </c>
       <c r="H7">
         <v>90</v>
@@ -3338,13 +3337,13 @@
       <c r="F23" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23">
         <v>7</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>16</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23">
         <v>21.5</v>
       </c>
       <c r="K23" t="s">

--- a/param_dist/below_ground.xlsx
+++ b/param_dist/below_ground.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slategeotech-my.sharepoint.com/personal/bzheng_slategeotech_com/Documents/CEC/OpenSRA/param_dist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{A3D454CB-C675-440C-B26E-BB3C7CD09156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00E401F1-383E-4AE8-8CFF-2DB8FC46787D}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{A3D454CB-C675-440C-B26E-BB3C7CD09156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AAC5B23-7A5E-4B88-99E3-AAC6E2F95A94}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-120" windowWidth="27630" windowHeight="16440" activeTab="2" xr2:uid="{0CF1B192-5A29-435B-821A-1A8E6C927DCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0CF1B192-5A29-435B-821A-1A8E6C927DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="level1" sheetId="1" r:id="rId1"/>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38878A27-4F03-488B-A8C6-4048A6415AE1}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,7 +1248,7 @@
         <v>5</v>
       </c>
       <c r="F14">
-        <v>8200</v>
+        <v>3000</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -1731,7 +1731,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="A14" sqref="A14:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2642,8 +2642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AD9398-98CA-4DC9-BCD5-D6EC9B94D5CB}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/param_dist/below_ground.xlsx
+++ b/param_dist/below_ground.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://slategeotech-my.sharepoint.com/personal/bzheng_slategeotech_com/Documents/CEC/OpenSRA/param_dist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{A3D454CB-C675-440C-B26E-BB3C7CD09156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AAC5B23-7A5E-4B88-99E3-AAC6E2F95A94}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{A3D454CB-C675-440C-B26E-BB3C7CD09156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31741F41-32A3-49FD-BA8C-EA9C8EF106FC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0CF1B192-5A29-435B-821A-1A8E6C927DCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{0CF1B192-5A29-435B-821A-1A8E6C927DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="level1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="115">
   <si>
     <t>normal</t>
   </si>
@@ -404,6 +404,75 @@
   </si>
   <si>
     <t>theta_rake</t>
+  </si>
+  <si>
+    <t>corrosivity</t>
+  </si>
+  <si>
+    <t>soil corrosivity: &lt;=750 = high impact, &gt;1500 = low impact</t>
+  </si>
+  <si>
+    <t>ohm-cm</t>
+  </si>
+  <si>
+    <t>install_year</t>
+  </si>
+  <si>
+    <t>year of installation</t>
+  </si>
+  <si>
+    <t>pge_a</t>
+  </si>
+  <si>
+    <t>PG&amp;E model coefficent a</t>
+  </si>
+  <si>
+    <t>probability (fraction)</t>
+  </si>
+  <si>
+    <t>pge_b</t>
+  </si>
+  <si>
+    <t>pge_c</t>
+  </si>
+  <si>
+    <t>PG&amp;E model coefficent b</t>
+  </si>
+  <si>
+    <t>PG&amp;E model coefficent c</t>
+  </si>
+  <si>
+    <t>PG&amp;E model maximum magnitude scaling factor</t>
+  </si>
+  <si>
+    <t>PG&amp;E model lateral-spreading coefficient</t>
+  </si>
+  <si>
+    <t>PG&amp;E model settlement coefficent</t>
+  </si>
+  <si>
+    <t>PG&amp;E model lateral-spreading sigmaln</t>
+  </si>
+  <si>
+    <t>PG&amp;E model settlement sigmaln</t>
+  </si>
+  <si>
+    <t>msf_max</t>
+  </si>
+  <si>
+    <t>dl</t>
+  </si>
+  <si>
+    <t>sigl</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>sigs</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -799,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38878A27-4F03-488B-A8C6-4048A6415AE1}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3547,10 +3616,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05FAA73-8B95-463E-BA46-D430429688CD}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3675,6 +3744,206 @@
         <v>88</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
